--- a/Backlog planning.xlsx
+++ b/Backlog planning.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidde\Documents\UHasselt\Project Vaardigheden\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidde\Documents\UHasselt\Git projects\PV Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D9E2B4-4A58-49BF-B407-EF7571E8F840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0EC93B-1296-4E56-9E26-2899BBA80329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC8AF2EA-0488-4652-ADD5-9C065434B351}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +561,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="3">
-        <v>44614</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Backlog planning.xlsx
+++ b/Backlog planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hidde\Documents\UHasselt\Git projects\PV Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A0EC93B-1296-4E56-9E26-2899BBA80329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1C46E2-DE3B-431B-9BB4-35E83A74CFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC8AF2EA-0488-4652-ADD5-9C065434B351}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>BeleidsIT</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>Huidige D</t>
+  </si>
+  <si>
+    <t>6|0</t>
+  </si>
+  <si>
+    <t>4|0</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>3|0</t>
   </si>
 </sst>
 </file>
@@ -510,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CA5FB4-F0A4-483A-93E8-7957F0A3C10E}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +573,7 @@
         <v>24</v>
       </c>
       <c r="B7" s="3">
-        <v>44616</v>
+        <v>44614</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -640,8 +652,11 @@
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -743,7 +758,9 @@
       <c r="E25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
@@ -762,10 +779,10 @@
         <v>80</v>
       </c>
       <c r="D26" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -854,8 +871,11 @@
       <c r="C34">
         <v>8</v>
       </c>
-      <c r="E34">
-        <v>0</v>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -957,7 +977,9 @@
       <c r="E44" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
@@ -976,10 +998,10 @@
         <v>80</v>
       </c>
       <c r="D45" s="2">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E45" s="2">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -1054,8 +1076,11 @@
       <c r="C52">
         <v>8</v>
       </c>
-      <c r="E52">
-        <v>0</v>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -1168,7 +1193,9 @@
       <c r="E63" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
@@ -1187,7 +1214,7 @@
         <v>80</v>
       </c>
       <c r="D64" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E64" s="2">
         <v>72</v>
@@ -1265,8 +1292,11 @@
       <c r="C71">
         <v>8</v>
       </c>
-      <c r="E71">
-        <v>0</v>
+      <c r="D71">
+        <v>6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -1379,7 +1409,9 @@
       <c r="E82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -1398,7 +1430,7 @@
         <v>80</v>
       </c>
       <c r="D83" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E83" s="2">
         <v>72</v>
@@ -1476,8 +1508,11 @@
       <c r="C90">
         <v>8</v>
       </c>
-      <c r="E90">
-        <v>0</v>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -1590,7 +1625,9 @@
       <c r="E101" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F101" s="2"/>
+      <c r="F101" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
@@ -1609,7 +1646,7 @@
         <v>80</v>
       </c>
       <c r="D102" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E102" s="2">
         <v>72</v>
